--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/OHIO_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/OHIO_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1055"/>
+  <dimension ref="A1:D1049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C33">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C43">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C67">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C70">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C74">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C82">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C83">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C85">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C114">
@@ -1881,7 +1881,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C115">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2351,7 +2351,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C150">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C152">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C164">
@@ -2577,12 +2577,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C167">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C171">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C174">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C180">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C183">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C189">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C194">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C205">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C213">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C215">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C222">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C228">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C233">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C236">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C243">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C251">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C254">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C259">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C264">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C266">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C268">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C271">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C273">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C279">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C282">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C287">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C293">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C298">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C302">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C309">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C324">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C326">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C328">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C332">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C334">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C340">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C344">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C347">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C349">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C357">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C361">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C365">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C368">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C371">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C376">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C377">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C381">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C386">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C400">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C402">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C404">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C407">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C408">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C413">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C417">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6533,7 +6533,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C469">
@@ -6863,7 +6863,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C494">
@@ -6915,7 +6915,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C498">
@@ -6928,7 +6928,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C499">
@@ -7115,7 +7115,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C513">
@@ -7237,7 +7237,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C522">
@@ -7289,7 +7289,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C526">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C529">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C534">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C536">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C544">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C550">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C551">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C556">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C558">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C564">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C566">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C615">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C627">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C628">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C637">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C647">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C681">
@@ -9348,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C684">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C686">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C688">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C694">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C696">
@@ -9613,7 +9613,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C704">
@@ -9886,7 +9886,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C725">
@@ -9938,7 +9938,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C729">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C730">
@@ -9977,7 +9977,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C732">
@@ -10068,7 +10068,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C739">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C756">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C757">
@@ -10341,7 +10341,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C760">
@@ -10354,7 +10354,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C761">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C765">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C784">
@@ -10684,7 +10684,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C786">
@@ -10736,7 +10736,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C790">
@@ -10749,7 +10749,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C791">
@@ -10775,7 +10775,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C793">
@@ -10814,7 +10814,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C796">
@@ -10928,7 +10928,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C804">
@@ -10993,7 +10993,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C809">
@@ -11058,7 +11058,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C814">
@@ -11149,7 +11149,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C821">
@@ -11162,7 +11162,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C822">
@@ -11201,7 +11201,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C825">
@@ -11240,7 +11240,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C828">
@@ -11253,7 +11253,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C829">
@@ -11266,7 +11266,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C830">
@@ -11279,7 +11279,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C831">
@@ -11292,7 +11292,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C832">
@@ -12092,7 +12092,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C892">
@@ -12253,7 +12253,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C904">
@@ -12357,7 +12357,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C916">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C925">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C929">
@@ -12674,7 +12674,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C936">
@@ -12856,7 +12856,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C950">
@@ -12869,7 +12869,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C951">
@@ -12895,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C953">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C954">
@@ -12999,7 +12999,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C961">
@@ -13103,7 +13103,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C969">
@@ -13142,7 +13142,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C972">
@@ -13233,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C979">
@@ -13259,7 +13259,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C981">
@@ -13363,7 +13363,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C989">
@@ -13376,7 +13376,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C990">
@@ -13415,7 +13415,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C993">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1003">
@@ -13662,7 +13662,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1012">
@@ -13753,7 +13753,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1019">
@@ -13867,7 +13867,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1027">
@@ -13984,7 +13984,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1036">
@@ -14062,7 +14062,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1042">
@@ -14114,7 +14114,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1046">
@@ -14153,7 +14153,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1049">
@@ -14161,41 +14161,6 @@
       </c>
       <c r="D1049">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
